--- a/EEF1A2-variants-prioritized.xlsx
+++ b/EEF1A2-variants-prioritized.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI2021/variants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB21A8-8236-874D-B9AC-41EF7A6DE5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A21AF-A6A5-5445-B0C2-1859FEAC44CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37160" yWindow="980" windowWidth="31640" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="1500" windowWidth="31640" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EEF1A2_dm" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="646">
   <si>
     <t>Coordinate</t>
   </si>
@@ -160,9 +160,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>GCG</t>
-  </si>
-  <si>
     <t>GTG</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>aCg/aTg</t>
   </si>
   <si>
-    <t>ACG</t>
-  </si>
-  <si>
     <t>COSV99418918</t>
   </si>
   <si>
@@ -526,9 +520,6 @@
     <t>Gac/Aac</t>
   </si>
   <si>
-    <t>GAC</t>
-  </si>
-  <si>
     <t>AAC</t>
   </si>
   <si>
@@ -610,9 +601,6 @@
     <t>Cgg/Tgg</t>
   </si>
   <si>
-    <t>CGG</t>
-  </si>
-  <si>
     <t>TGG</t>
   </si>
   <si>
@@ -937,9 +925,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>CCG</t>
-  </si>
-  <si>
     <t>rs1405800415,COSV53204719,COSV53206182</t>
   </si>
   <si>
@@ -1943,6 +1928,39 @@
   </si>
   <si>
     <t>ORoak2014</t>
+  </si>
+  <si>
+    <t>CGT</t>
+  </si>
+  <si>
+    <t>GGA</t>
+  </si>
+  <si>
+    <t>ACA</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>TCT</t>
+  </si>
+  <si>
+    <t>TCC</t>
+  </si>
+  <si>
+    <t>GAA</t>
+  </si>
+  <si>
+    <t>GGT</t>
+  </si>
+  <si>
+    <t>GCA</t>
+  </si>
+  <si>
+    <t>ACT</t>
   </si>
 </sst>
 </file>
@@ -2865,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2882,7 +2900,7 @@
     <col min="11" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="15.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="1"/>
     <col min="17" max="18" width="34.1640625" style="1" customWidth="1"/>
@@ -3005,33 +3023,33 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="10" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>37</v>
@@ -3049,31 +3067,31 @@
         <v>418</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="M2" s="9">
         <v>418</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="S2" s="9">
         <v>26.7</v>
@@ -3082,13 +3100,13 @@
         <v>0.36299999999999999</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>38</v>
@@ -3100,7 +3118,7 @@
         <v>2.6589999999999999E-2</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>38</v>
@@ -3118,21 +3136,21 @@
         <v>1</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>389234</v>
@@ -3153,31 +3171,31 @@
         <v>176</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3" s="2">
         <v>176</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>219</v>
+        <v>640</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="S3" s="2">
         <v>18.489999999999998</v>
@@ -3186,13 +3204,13 @@
         <v>9.4E-2</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>38</v>
@@ -3204,22 +3222,22 @@
         <v>5.195E-3</v>
       </c>
       <c r="AA3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="AD3" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ3" s="2">
         <v>2</v>
@@ -3228,15 +3246,15 @@
         <v>1</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -3260,31 +3278,31 @@
         <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M4" s="3">
         <v>10</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="S4" s="3">
         <v>27</v>
@@ -3293,13 +3311,13 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>38</v>
@@ -3317,16 +3335,16 @@
         <v>38</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AE4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="AJ4" s="3">
         <v>3</v>
@@ -3335,15 +3353,15 @@
         <v>2</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -3367,31 +3385,31 @@
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="3">
         <v>23</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="S5" s="3">
         <v>21.9</v>
@@ -3400,13 +3418,13 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>38</v>
@@ -3418,22 +3436,22 @@
         <v>2.9399999999999999E-4</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ5" s="3">
         <v>3</v>
@@ -3442,15 +3460,15 @@
         <v>1</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:40" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>36</v>
@@ -3477,31 +3495,31 @@
         <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="3">
         <v>38</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S6" s="3">
         <v>26.9</v>
@@ -3510,13 +3528,13 @@
         <v>0.58899999999999997</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>38</v>
@@ -3528,22 +3546,22 @@
         <v>2.61E-4</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="AJ6" s="3">
         <v>3</v>
@@ -3552,12 +3570,12 @@
         <v>2</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:40" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>36</v>
@@ -3584,31 +3602,31 @@
         <v>133</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" s="3">
         <v>133</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="R7" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="S7" s="3">
         <v>26</v>
@@ -3617,13 +3635,13 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>38</v>
@@ -3641,16 +3659,16 @@
         <v>38</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AE7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF7" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="AJ7" s="3">
         <v>3</v>
@@ -3659,18 +3677,18 @@
         <v>2</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:40" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="3">
         <v>1202499</v>
@@ -3691,31 +3709,31 @@
         <v>175</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M8" s="3">
         <v>175</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>63</v>
+        <v>641</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S8" s="3">
         <v>23.7</v>
@@ -3724,13 +3742,13 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>38</v>
@@ -3748,16 +3766,16 @@
         <v>38</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ8" s="3">
         <v>3</v>
@@ -3766,18 +3784,18 @@
         <v>1</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:40" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -3801,10 +3819,10 @@
         <v>213</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>36</v>
@@ -3813,19 +3831,19 @@
         <v>213</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>62</v>
+        <v>636</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="S9" s="3">
         <v>27.6</v>
@@ -3834,13 +3852,13 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>38</v>
@@ -3852,22 +3870,22 @@
         <v>1.18E-4</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AE9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="AJ9" s="3">
         <v>3</v>
@@ -3876,18 +3894,18 @@
         <v>2</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="5">
         <v>279803</v>
@@ -3908,31 +3926,31 @@
         <v>91</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M10" s="5">
         <v>91</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="S10" s="5">
         <v>27.5</v>
@@ -3941,13 +3959,13 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>38</v>
@@ -3965,16 +3983,16 @@
         <v>38</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ10" s="5">
         <v>4</v>
@@ -3983,18 +4001,18 @@
         <v>1</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="5">
         <v>280924</v>
@@ -4015,31 +4033,31 @@
         <v>124</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M11" s="5">
         <v>124</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="S11" s="5">
         <v>24.6</v>
@@ -4048,13 +4066,13 @@
         <v>0.623</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>38</v>
@@ -4072,16 +4090,16 @@
         <v>38</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ11" s="5">
         <v>4</v>
@@ -4090,15 +4108,15 @@
         <v>1</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:40" s="4" customFormat="1">
       <c r="A12" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>36</v>
@@ -4122,10 +4140,10 @@
         <v>384</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>36</v>
@@ -4134,19 +4152,19 @@
         <v>384</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S12" s="4">
         <v>28.1</v>
@@ -4155,13 +4173,13 @@
         <v>0.38600000000000001</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="X12" s="4" t="s">
         <v>38</v>
@@ -4179,16 +4197,16 @@
         <v>38</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ12" s="4">
         <v>5</v>
@@ -4197,18 +4215,18 @@
         <v>1</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:40" s="4" customFormat="1">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -4232,31 +4250,31 @@
         <v>437</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M13" s="4">
         <v>437</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="S13" s="4">
         <v>24.8</v>
@@ -4265,40 +4283,40 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="W13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="X13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="X13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="AE13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ13" s="4">
         <v>5</v>
@@ -4307,21 +4325,21 @@
         <v>1</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:40" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4">
         <v>452507</v>
@@ -4342,31 +4360,31 @@
         <v>42</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M14" s="4">
         <v>42</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="S14" s="4">
         <v>27.4</v>
@@ -4375,13 +4393,13 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="X14" s="4" t="s">
         <v>38</v>
@@ -4399,16 +4417,16 @@
         <v>38</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ14" s="4">
         <v>6</v>
@@ -4417,12 +4435,12 @@
         <v>2</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:40" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>36</v>
@@ -4449,31 +4467,31 @@
         <v>69</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M15" s="4">
         <v>69</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>78</v>
+        <v>635</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S15" s="4">
         <v>23.7</v>
@@ -4482,13 +4500,13 @@
         <v>0.86</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="X15" s="4" t="s">
         <v>38</v>
@@ -4506,16 +4524,16 @@
         <v>38</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF15" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="AJ15" s="4">
         <v>6</v>
@@ -4523,13 +4541,13 @@
     </row>
     <row r="16" spans="1:40" s="4" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4">
         <v>984947</v>
@@ -4550,31 +4568,31 @@
         <v>95</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M16" s="4">
         <v>95</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="S16" s="4">
         <v>24</v>
@@ -4583,13 +4601,13 @@
         <v>0.86399999999999999</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="X16" s="4" t="s">
         <v>38</v>
@@ -4607,16 +4625,16 @@
         <v>38</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ16" s="4">
         <v>6</v>
@@ -4625,18 +4643,18 @@
         <v>2</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:39" s="4" customFormat="1">
       <c r="A17" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4">
         <v>830076</v>
@@ -4657,31 +4675,31 @@
         <v>98</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M17" s="4">
         <v>98</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="S17" s="4">
         <v>27.1</v>
@@ -4690,13 +4708,13 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="X17" s="4" t="s">
         <v>38</v>
@@ -4714,16 +4732,16 @@
         <v>38</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ17" s="4">
         <v>6</v>
@@ -4732,18 +4750,18 @@
         <v>1</v>
       </c>
       <c r="AL17" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AM17" s="4" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:39" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>36</v>
@@ -4767,10 +4785,10 @@
         <v>126</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>36</v>
@@ -4779,19 +4797,19 @@
         <v>126</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>62</v>
+        <v>643</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="S18" s="4">
         <v>27.6</v>
@@ -4800,13 +4818,13 @@
         <v>0.70799999999999996</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="X18" s="4" t="s">
         <v>38</v>
@@ -4824,16 +4842,16 @@
         <v>38</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ18" s="4">
         <v>6</v>
@@ -4842,15 +4860,15 @@
         <v>1</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AM18" s="4" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:39" s="4" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>36</v>
@@ -4877,31 +4895,31 @@
         <v>274</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M19" s="4">
         <v>274</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="S19" s="4">
         <v>23.7</v>
@@ -4910,13 +4928,13 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="X19" s="4" t="s">
         <v>38</v>
@@ -4928,22 +4946,22 @@
         <v>8.9900000000000003E-6</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AB19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ19" s="4">
         <v>6</v>
@@ -4952,18 +4970,18 @@
         <v>2</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:39" s="4" customFormat="1">
       <c r="A20" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4">
         <v>567537</v>
@@ -4984,31 +5002,31 @@
         <v>288</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M20" s="4">
         <v>288</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S20" s="4">
         <v>27.6</v>
@@ -5017,13 +5035,13 @@
         <v>0.55500000000000005</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="X20" s="4" t="s">
         <v>38</v>
@@ -5041,16 +5059,16 @@
         <v>38</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF20" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="AJ20" s="4">
         <v>6</v>
@@ -5059,18 +5077,18 @@
         <v>2</v>
       </c>
       <c r="AL20" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:39" s="4" customFormat="1">
       <c r="A21" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4">
         <v>987402</v>
@@ -5091,31 +5109,31 @@
         <v>296</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M21" s="4">
         <v>296</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S21" s="4">
         <v>21.2</v>
@@ -5124,13 +5142,13 @@
         <v>0.47099999999999997</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="X21" s="4" t="s">
         <v>38</v>
@@ -5148,16 +5166,16 @@
         <v>38</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ21" s="4">
         <v>6</v>
@@ -5165,13 +5183,13 @@
     </row>
     <row r="22" spans="1:39" s="4" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D22" s="4">
         <v>429906</v>
@@ -5192,31 +5210,31 @@
         <v>315</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M22" s="4">
         <v>315</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="S22" s="4">
         <v>24.8</v>
@@ -5225,13 +5243,13 @@
         <v>0.443</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="X22" s="4" t="s">
         <v>38</v>
@@ -5249,16 +5267,16 @@
         <v>38</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ22" s="4">
         <v>6</v>
@@ -5266,13 +5284,13 @@
     </row>
     <row r="23" spans="1:39" s="4" customFormat="1">
       <c r="A23" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D23" s="4">
         <v>452790</v>
@@ -5293,10 +5311,10 @@
         <v>338</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>35</v>
@@ -5305,19 +5323,19 @@
         <v>338</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S23" s="4">
         <v>23.3</v>
@@ -5326,13 +5344,13 @@
         <v>0.05</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="X23" s="4" t="s">
         <v>38</v>
@@ -5350,16 +5368,16 @@
         <v>38</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ23" s="4">
         <v>6</v>
@@ -5367,7 +5385,7 @@
     </row>
     <row r="24" spans="1:39" s="4" customFormat="1">
       <c r="A24" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -5394,31 +5412,31 @@
         <v>432</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M24" s="4">
         <v>432</v>
       </c>
       <c r="N24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="S24" s="4">
         <v>23.4</v>
@@ -5427,40 +5445,40 @@
         <v>0.371</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="AF24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ24" s="4">
         <v>6</v>
@@ -5468,13 +5486,13 @@
     </row>
     <row r="25" spans="1:39" s="6" customFormat="1">
       <c r="A25" s="6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D25" s="6">
         <v>91</v>
@@ -5495,10 +5513,10 @@
         <v>70</v>
       </c>
       <c r="J25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>36</v>
@@ -5507,19 +5525,19 @@
         <v>70</v>
       </c>
       <c r="N25" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="O25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="P25" s="6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="S25" s="6">
         <v>26.8</v>
@@ -5528,13 +5546,13 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="X25" s="6" t="s">
         <v>38</v>
@@ -5549,16 +5567,16 @@
         <v>38</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ25" s="6">
         <v>7</v>
@@ -5567,24 +5585,24 @@
         <v>1</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM25" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:39" s="6" customFormat="1">
       <c r="A26" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>37</v>
@@ -5602,31 +5620,31 @@
         <v>122</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M26" s="6">
         <v>122</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>87</v>
+        <v>642</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="S26" s="6">
         <v>28.1</v>
@@ -5635,13 +5653,13 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="W26" s="6" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="X26" s="6" t="s">
         <v>38</v>
@@ -5656,16 +5674,16 @@
         <v>38</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ26" s="6">
         <v>7</v>
@@ -5674,24 +5692,24 @@
         <v>1</v>
       </c>
       <c r="AL26" s="6" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM26" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:39" s="6" customFormat="1">
       <c r="A27" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>37</v>
@@ -5709,31 +5727,31 @@
         <v>252</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M27" s="6">
         <v>252</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S27" s="6">
         <v>24.7</v>
@@ -5742,13 +5760,13 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="X27" s="6" t="s">
         <v>38</v>
@@ -5766,13 +5784,13 @@
         <v>24697219</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ27" s="6">
         <v>7</v>
@@ -5781,24 +5799,24 @@
         <v>1</v>
       </c>
       <c r="AL27" s="6" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM27" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:39" s="6" customFormat="1">
       <c r="A28" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D28" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>37</v>
@@ -5816,10 +5834,10 @@
         <v>305</v>
       </c>
       <c r="J28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>36</v>
@@ -5828,19 +5846,19 @@
         <v>305</v>
       </c>
       <c r="N28" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="O28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="P28" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="S28" s="6">
         <v>25.1</v>
@@ -5849,13 +5867,13 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="X28" s="6" t="s">
         <v>38</v>
@@ -5867,16 +5885,16 @@
         <v>8.8880000000000003E-6</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AB28" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AJ28" s="6">
         <v>7</v>
@@ -5885,24 +5903,24 @@
         <v>1</v>
       </c>
       <c r="AL28" s="6" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM28" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:39" s="6" customFormat="1">
       <c r="A29" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D29" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>37</v>
@@ -5920,31 +5938,31 @@
         <v>382</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M29" s="6">
         <v>382</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>78</v>
+        <v>635</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>38</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="S29" s="6">
         <v>23.6</v>
@@ -5953,13 +5971,13 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="X29" s="6" t="s">
         <v>38</v>
@@ -5977,13 +5995,13 @@
         <v>38</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ29" s="6">
         <v>7</v>
@@ -5992,24 +6010,24 @@
         <v>1</v>
       </c>
       <c r="AL29" s="6" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM29" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:39" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>37</v>
@@ -6027,31 +6045,31 @@
         <v>438</v>
       </c>
       <c r="J30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="L30" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="M30" s="6">
         <v>438</v>
       </c>
       <c r="N30" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="P30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q30" s="6" t="s">
+      <c r="R30" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="S30" s="6">
         <v>23.3</v>
@@ -6060,37 +6078,37 @@
         <v>0.37</v>
       </c>
       <c r="U30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="V30" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="V30" s="6" t="s">
+      <c r="W30" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W30" s="6" t="s">
+      <c r="X30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="X30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC30" s="6" t="s">
+      <c r="AG30" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AG30" s="6" t="s">
+      <c r="AH30" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="AJ30" s="6">
         <v>7</v>
@@ -6099,15 +6117,15 @@
         <v>1</v>
       </c>
       <c r="AL30" s="6" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM30" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:39" s="8" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>36</v>
@@ -6146,19 +6164,19 @@
         <v>65</v>
       </c>
       <c r="N31" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="O31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="P31" s="8" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="S31" s="8">
         <v>23.9</v>
@@ -6167,13 +6185,13 @@
         <v>0.61</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="W31" s="8" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="X31" s="8" t="s">
         <v>38</v>
@@ -6191,16 +6209,16 @@
         <v>38</v>
       </c>
       <c r="AC31" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD31" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ31" s="8">
         <v>8</v>
@@ -6209,21 +6227,21 @@
         <v>1</v>
       </c>
       <c r="AL31" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM31" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:39" s="8" customFormat="1">
       <c r="A32" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D32" s="8">
         <v>967313</v>
@@ -6244,31 +6262,31 @@
         <v>169</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M32" s="8">
         <v>169</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>87</v>
+        <v>642</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="S32" s="8">
         <v>26.9</v>
@@ -6277,13 +6295,13 @@
         <v>0.50600000000000001</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="X32" s="8" t="s">
         <v>38</v>
@@ -6301,16 +6319,16 @@
         <v>38</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF32" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ32" s="8">
         <v>8</v>
@@ -6319,21 +6337,21 @@
         <v>1</v>
       </c>
       <c r="AL32" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM32" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="1:39" s="8" customFormat="1">
       <c r="A33" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="8">
         <v>1022181</v>
@@ -6354,31 +6372,31 @@
         <v>181</v>
       </c>
       <c r="J33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="L33" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="M33" s="8">
         <v>181</v>
       </c>
       <c r="N33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O33" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="P33" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P33" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="R33" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="S33" s="8">
         <v>22.9</v>
@@ -6387,13 +6405,13 @@
         <v>0.311</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="W33" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="X33" s="8" t="s">
         <v>38</v>
@@ -6411,16 +6429,16 @@
         <v>38</v>
       </c>
       <c r="AC33" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD33" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE33" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF33" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ33" s="8">
         <v>8</v>
@@ -6429,21 +6447,21 @@
         <v>1</v>
       </c>
       <c r="AL33" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM33" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="1:39" s="8" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D34" s="8">
         <v>649863</v>
@@ -6464,31 +6482,31 @@
         <v>191</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M34" s="8">
         <v>191</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="S34" s="8">
         <v>24.4</v>
@@ -6497,13 +6515,13 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="W34" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="X34" s="8" t="s">
         <v>38</v>
@@ -6521,16 +6539,16 @@
         <v>38</v>
       </c>
       <c r="AC34" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE34" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ34" s="8">
         <v>8</v>
@@ -6539,15 +6557,15 @@
         <v>1</v>
       </c>
       <c r="AL34" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM34" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:39" s="8" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>36</v>
@@ -6574,31 +6592,31 @@
         <v>247</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M35" s="8">
         <v>247</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>78</v>
+        <v>635</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="S35" s="8">
         <v>23.7</v>
@@ -6607,13 +6625,13 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="W35" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="X35" s="8" t="s">
         <v>38</v>
@@ -6625,22 +6643,22 @@
         <v>1.7399999999999999E-5</v>
       </c>
       <c r="AA35" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AB35" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AC35" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD35" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE35" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AF35" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ35" s="8">
         <v>8</v>
@@ -6649,15 +6667,15 @@
         <v>1</v>
       </c>
       <c r="AL35" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM35" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:39" s="8" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>36</v>
@@ -6684,31 +6702,31 @@
         <v>261</v>
       </c>
       <c r="J36" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="L36" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M36" s="8">
         <v>261</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>124</v>
+        <v>637</v>
       </c>
       <c r="O36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q36" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P36" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="R36" s="8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="S36" s="8">
         <v>25.2</v>
@@ -6717,13 +6735,13 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="X36" s="8" t="s">
         <v>38</v>
@@ -6741,16 +6759,16 @@
         <v>38</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD36" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE36" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ36" s="8">
         <v>8</v>
@@ -6759,15 +6777,15 @@
         <v>1</v>
       </c>
       <c r="AL36" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM36" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:39" s="8" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>36</v>
@@ -6806,19 +6824,19 @@
         <v>281</v>
       </c>
       <c r="N37" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O37" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O37" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="P37" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S37" s="8">
         <v>24</v>
@@ -6827,13 +6845,13 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="U37" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="X37" s="8" t="s">
         <v>38</v>
@@ -6845,22 +6863,22 @@
         <v>8.9339999999999995E-6</v>
       </c>
       <c r="AA37" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AB37" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AC37" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD37" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF37" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ37" s="8">
         <v>8</v>
@@ -6869,24 +6887,24 @@
         <v>1</v>
       </c>
       <c r="AL37" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM37" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:39" s="8" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>37</v>
@@ -6904,31 +6922,31 @@
         <v>445</v>
       </c>
       <c r="J38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="L38" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="M38" s="8">
         <v>445</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>63</v>
+        <v>465</v>
       </c>
       <c r="O38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="Q38" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="R38" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="S38" s="8">
         <v>18.649999999999999</v>
@@ -6937,40 +6955,40 @@
         <v>1.2E-2</v>
       </c>
       <c r="U38" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="W38" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="W38" s="8" t="s">
+      <c r="X38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF38" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="X38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF38" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="AJ38" s="8">
         <v>8</v>
@@ -6979,21 +6997,21 @@
         <v>1</v>
       </c>
       <c r="AL38" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM38" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:39" s="8" customFormat="1">
       <c r="A39" s="8" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D39" s="8">
         <v>581903</v>
@@ -7014,10 +7032,10 @@
         <v>14</v>
       </c>
       <c r="J39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>36</v>
@@ -7026,19 +7044,19 @@
         <v>14</v>
       </c>
       <c r="N39" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="O39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O39" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="P39" s="8" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S39" s="8">
         <v>27.3</v>
@@ -7047,13 +7065,13 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="U39" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="W39" s="8" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="X39" s="8" t="s">
         <v>38</v>
@@ -7065,22 +7083,22 @@
         <v>1.639E-4</v>
       </c>
       <c r="AA39" s="8" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AB39" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AC39" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE39" s="8" t="s">
+      <c r="AF39" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF39" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ39" s="8">
         <v>9</v>
@@ -7089,15 +7107,15 @@
         <v>2</v>
       </c>
       <c r="AL39" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM39" s="8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:39" s="8" customFormat="1">
       <c r="A40" s="8" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>36</v>
@@ -7136,19 +7154,19 @@
         <v>46</v>
       </c>
       <c r="N40" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O40" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="P40" s="8" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="S40" s="8">
         <v>28.8</v>
@@ -7157,13 +7175,13 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="W40" s="8" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="X40" s="8" t="s">
         <v>38</v>
@@ -7181,16 +7199,16 @@
         <v>38</v>
       </c>
       <c r="AC40" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE40" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE40" s="8" t="s">
+      <c r="AF40" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF40" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ40" s="8">
         <v>9</v>
@@ -7199,21 +7217,21 @@
         <v>2</v>
       </c>
       <c r="AL40" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM40" s="8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41" spans="1:39" s="8" customFormat="1">
       <c r="A41" s="8" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="8">
         <v>1182986</v>
@@ -7234,10 +7252,10 @@
         <v>51</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>44</v>
@@ -7246,19 +7264,19 @@
         <v>51</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P41" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="S41" s="8">
         <v>25.8</v>
@@ -7267,13 +7285,13 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="U41" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="W41" s="8" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="X41" s="8" t="s">
         <v>38</v>
@@ -7291,16 +7309,16 @@
         <v>38</v>
       </c>
       <c r="AC41" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD41" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE41" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF41" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ41" s="8">
         <v>9</v>
@@ -7308,13 +7326,13 @@
     </row>
     <row r="42" spans="1:39" s="8" customFormat="1">
       <c r="A42" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D42" s="8">
         <v>1018904</v>
@@ -7335,10 +7353,10 @@
         <v>92</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>35</v>
@@ -7347,19 +7365,19 @@
         <v>92</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="S42" s="8">
         <v>25.9</v>
@@ -7368,13 +7386,13 @@
         <v>0.376</v>
       </c>
       <c r="U42" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="W42" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="X42" s="8" t="s">
         <v>38</v>
@@ -7392,16 +7410,16 @@
         <v>38</v>
       </c>
       <c r="AC42" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE42" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE42" s="8" t="s">
+      <c r="AF42" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF42" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ42" s="8">
         <v>9</v>
@@ -7409,7 +7427,7 @@
     </row>
     <row r="43" spans="1:39" s="8" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>35</v>
@@ -7436,31 +7454,31 @@
         <v>102</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M43" s="8">
         <v>102</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S43" s="8">
         <v>24.9</v>
@@ -7469,13 +7487,13 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="X43" s="8" t="s">
         <v>38</v>
@@ -7493,16 +7511,16 @@
         <v>38</v>
       </c>
       <c r="AC43" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE43" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE43" s="8" t="s">
+      <c r="AF43" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF43" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ43" s="8">
         <v>9</v>
@@ -7510,7 +7528,7 @@
     </row>
     <row r="44" spans="1:39" s="8" customFormat="1">
       <c r="A44" s="8" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>36</v>
@@ -7537,31 +7555,31 @@
         <v>104</v>
       </c>
       <c r="J44" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K44" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="L44" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M44" s="8">
         <v>104</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="S44" s="8">
         <v>24.7</v>
@@ -7570,13 +7588,13 @@
         <v>0.746</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="W44" s="8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="X44" s="8" t="s">
         <v>38</v>
@@ -7594,16 +7612,16 @@
         <v>38</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD44" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE44" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF44" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ44" s="8">
         <v>9</v>
@@ -7611,7 +7629,7 @@
     </row>
     <row r="45" spans="1:39" s="8" customFormat="1">
       <c r="A45" s="8" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>36</v>
@@ -7650,19 +7668,19 @@
         <v>117</v>
       </c>
       <c r="N45" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O45" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="P45" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="S45" s="8">
         <v>26</v>
@@ -7671,13 +7689,13 @@
         <v>0.624</v>
       </c>
       <c r="U45" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="W45" s="8" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="X45" s="8" t="s">
         <v>38</v>
@@ -7695,16 +7713,16 @@
         <v>38</v>
       </c>
       <c r="AC45" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD45" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE45" s="8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AF45" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ45" s="8">
         <v>9</v>
@@ -7712,7 +7730,7 @@
     </row>
     <row r="46" spans="1:39" s="8" customFormat="1">
       <c r="A46" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>36</v>
@@ -7739,31 +7757,31 @@
         <v>134</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M46" s="8">
         <v>134</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="S46" s="8">
         <v>31</v>
@@ -7772,13 +7790,13 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="W46" s="8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="X46" s="8" t="s">
         <v>38</v>
@@ -7796,16 +7814,16 @@
         <v>38</v>
       </c>
       <c r="AC46" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE46" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE46" s="8" t="s">
+      <c r="AF46" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF46" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ46" s="8">
         <v>9</v>
@@ -7814,24 +7832,24 @@
         <v>2</v>
       </c>
       <c r="AL46" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM46" s="8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:39" s="8" customFormat="1">
       <c r="A47" s="8" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D47" s="8">
-        <v>588898</v>
+        <v>809273</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>37</v>
@@ -7840,82 +7858,82 @@
         <v>41</v>
       </c>
       <c r="G47" s="8">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H47" s="8">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I47" s="8">
         <v>142</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>480</v>
+        <v>121</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>481</v>
+        <v>122</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M47" s="8">
         <v>142</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="S47" s="8">
-        <v>24</v>
+        <v>24.9</v>
       </c>
       <c r="T47" s="8">
-        <v>0.63</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="W47" s="8" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="X47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Y47" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z47" s="8" t="s">
-        <v>38</v>
+      <c r="Y47" s="8">
+        <v>3.997E-6</v>
+      </c>
+      <c r="Z47" s="8">
+        <v>8.8710000000000003E-6</v>
       </c>
       <c r="AA47" s="8" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="AB47" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AC47" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD47" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE47" s="8" t="s">
-        <v>486</v>
+        <v>111</v>
       </c>
       <c r="AF47" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ47" s="8">
         <v>9</v>
@@ -7926,13 +7944,13 @@
         <v>474</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D48" s="8">
-        <v>809273</v>
+        <v>588898</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>37</v>
@@ -7941,82 +7959,82 @@
         <v>41</v>
       </c>
       <c r="G48" s="8">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H48" s="8">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I48" s="8">
         <v>142</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>122</v>
+        <v>475</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>123</v>
+        <v>476</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M48" s="8">
         <v>142</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="S48" s="8">
-        <v>24.9</v>
+        <v>24</v>
       </c>
       <c r="T48" s="8">
-        <v>0.64300000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V48" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="W48" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="X48" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Y48" s="8">
-        <v>3.997E-6</v>
-      </c>
-      <c r="Z48" s="8">
-        <v>8.8710000000000003E-6</v>
+      <c r="Y48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z48" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="AA48" s="8" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="AB48" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AC48" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD48" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE48" s="8" t="s">
-        <v>112</v>
+        <v>481</v>
       </c>
       <c r="AF48" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ48" s="8">
         <v>9</v>
@@ -8024,13 +8042,13 @@
     </row>
     <row r="49" spans="1:39" s="8" customFormat="1">
       <c r="A49" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D49" s="8">
         <v>939782</v>
@@ -8051,10 +8069,10 @@
         <v>151</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>36</v>
@@ -8063,19 +8081,19 @@
         <v>151</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>62</v>
+        <v>643</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P49" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="S49" s="8">
         <v>24.5</v>
@@ -8084,13 +8102,13 @@
         <v>0.42199999999999999</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="W49" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="X49" s="8" t="s">
         <v>38</v>
@@ -8108,16 +8126,16 @@
         <v>38</v>
       </c>
       <c r="AC49" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE49" s="8" t="s">
+      <c r="AF49" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF49" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ49" s="8">
         <v>9</v>
@@ -8125,13 +8143,13 @@
     </row>
     <row r="50" spans="1:39" s="8" customFormat="1">
       <c r="A50" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D50" s="8">
         <v>982593</v>
@@ -8152,31 +8170,31 @@
         <v>155</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M50" s="8">
         <v>155</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="S50" s="8">
         <v>22.3</v>
@@ -8185,13 +8203,13 @@
         <v>0.65300000000000002</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="W50" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="X50" s="8" t="s">
         <v>38</v>
@@ -8209,16 +8227,16 @@
         <v>38</v>
       </c>
       <c r="AC50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE50" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE50" s="8" t="s">
+      <c r="AF50" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF50" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ50" s="8">
         <v>9</v>
@@ -8226,13 +8244,13 @@
     </row>
     <row r="51" spans="1:39" s="8" customFormat="1">
       <c r="A51" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" s="8">
         <v>848460</v>
@@ -8253,31 +8271,31 @@
         <v>163</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M51" s="8">
         <v>163</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="S51" s="8">
         <v>25.2</v>
@@ -8286,13 +8304,13 @@
         <v>0.314</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="W51" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="X51" s="8" t="s">
         <v>38</v>
@@ -8304,22 +8322,22 @@
         <v>8.8710000000000003E-6</v>
       </c>
       <c r="AA51" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AB51" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AC51" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE51" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE51" s="8" t="s">
+      <c r="AF51" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF51" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ51" s="8">
         <v>9</v>
@@ -8327,13 +8345,13 @@
     </row>
     <row r="52" spans="1:39" s="8" customFormat="1">
       <c r="A52" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D52" s="8">
         <v>1285456</v>
@@ -8354,31 +8372,31 @@
         <v>164</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M52" s="8">
         <v>164</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="S52" s="8">
         <v>22.6</v>
@@ -8387,13 +8405,13 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="W52" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="X52" s="8" t="s">
         <v>38</v>
@@ -8411,16 +8429,16 @@
         <v>38</v>
       </c>
       <c r="AC52" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE52" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE52" s="8" t="s">
+      <c r="AF52" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF52" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ52" s="8">
         <v>9</v>
@@ -8428,13 +8446,13 @@
     </row>
     <row r="53" spans="1:39" s="8" customFormat="1">
       <c r="A53" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="8">
         <v>952533</v>
@@ -8455,31 +8473,31 @@
         <v>169</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M53" s="8">
         <v>169</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>87</v>
+        <v>642</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P53" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="S53" s="8">
         <v>24.1</v>
@@ -8488,13 +8506,13 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="W53" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="X53" s="8" t="s">
         <v>38</v>
@@ -8512,16 +8530,16 @@
         <v>38</v>
       </c>
       <c r="AC53" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE53" s="8" t="s">
+      <c r="AF53" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF53" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ53" s="8">
         <v>9</v>
@@ -8529,10 +8547,10 @@
     </row>
     <row r="54" spans="1:39" s="8" customFormat="1">
       <c r="A54" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>36</v>
@@ -8556,31 +8574,31 @@
         <v>177</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M54" s="8">
         <v>177</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="S54" s="8">
         <v>26.8</v>
@@ -8589,13 +8607,13 @@
         <v>0.57699999999999996</v>
       </c>
       <c r="U54" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="W54" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="X54" s="8" t="s">
         <v>38</v>
@@ -8613,16 +8631,16 @@
         <v>38</v>
       </c>
       <c r="AC54" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD54" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE54" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF54" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ54" s="8">
         <v>9</v>
@@ -8630,10 +8648,10 @@
     </row>
     <row r="55" spans="1:39" s="8" customFormat="1">
       <c r="A55" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>35</v>
@@ -8657,31 +8675,31 @@
         <v>178</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M55" s="8">
         <v>178</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="S55" s="8">
         <v>27</v>
@@ -8690,13 +8708,13 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="W55" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="X55" s="8" t="s">
         <v>38</v>
@@ -8714,16 +8732,16 @@
         <v>38</v>
       </c>
       <c r="AC55" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD55" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE55" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AF55" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ55" s="8">
         <v>9</v>
@@ -8731,13 +8749,13 @@
     </row>
     <row r="56" spans="1:39" s="8" customFormat="1">
       <c r="A56" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" s="8">
         <v>968948</v>
@@ -8758,10 +8776,10 @@
         <v>179</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>44</v>
@@ -8770,19 +8788,19 @@
         <v>179</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P56" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="S56" s="8">
         <v>24</v>
@@ -8791,13 +8809,13 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="W56" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="X56" s="8" t="s">
         <v>38</v>
@@ -8815,16 +8833,16 @@
         <v>38</v>
       </c>
       <c r="AC56" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD56" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE56" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE56" s="8" t="s">
+      <c r="AF56" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF56" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ56" s="8">
         <v>9</v>
@@ -8832,7 +8850,7 @@
     </row>
     <row r="57" spans="1:39" s="8" customFormat="1">
       <c r="A57" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>36</v>
@@ -8859,31 +8877,31 @@
         <v>209</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M57" s="8">
         <v>209</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="S57" s="8">
         <v>23.5</v>
@@ -8892,13 +8910,13 @@
         <v>0.105</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="W57" s="8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="X57" s="8" t="s">
         <v>38</v>
@@ -8916,16 +8934,16 @@
         <v>38</v>
       </c>
       <c r="AC57" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE57" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE57" s="8" t="s">
+      <c r="AF57" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF57" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ57" s="8">
         <v>9</v>
@@ -8933,13 +8951,13 @@
     </row>
     <row r="58" spans="1:39" s="8" customFormat="1">
       <c r="A58" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D58" s="8">
         <v>1176001</v>
@@ -8960,31 +8978,31 @@
         <v>216</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M58" s="8">
         <v>216</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P58" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S58" s="8">
         <v>25.2</v>
@@ -8993,13 +9011,13 @@
         <v>0.106</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="W58" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="X58" s="8" t="s">
         <v>38</v>
@@ -9017,16 +9035,16 @@
         <v>38</v>
       </c>
       <c r="AC58" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD58" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE58" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF58" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ58" s="8">
         <v>9</v>
@@ -9034,13 +9052,13 @@
     </row>
     <row r="59" spans="1:39" s="8" customFormat="1">
       <c r="A59" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D59" s="8">
         <v>1314021</v>
@@ -9061,10 +9079,10 @@
         <v>225</v>
       </c>
       <c r="J59" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="L59" s="8" t="s">
         <v>36</v>
@@ -9073,19 +9091,19 @@
         <v>225</v>
       </c>
       <c r="N59" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O59" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O59" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="P59" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="S59" s="8">
         <v>24.7</v>
@@ -9094,13 +9112,13 @@
         <v>0.35</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="W59" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="X59" s="8" t="s">
         <v>38</v>
@@ -9118,16 +9136,16 @@
         <v>38</v>
       </c>
       <c r="AC59" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD59" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE59" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF59" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ59" s="8">
         <v>9</v>
@@ -9135,13 +9153,13 @@
     </row>
     <row r="60" spans="1:39" s="8" customFormat="1">
       <c r="A60" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="8">
         <v>1064114</v>
@@ -9162,31 +9180,31 @@
         <v>238</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M60" s="8">
         <v>238</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>369</v>
+        <v>639</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S60" s="8">
         <v>23.6</v>
@@ -9195,13 +9213,13 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="W60" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="X60" s="8" t="s">
         <v>38</v>
@@ -9219,16 +9237,16 @@
         <v>38</v>
       </c>
       <c r="AC60" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE60" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE60" s="8" t="s">
+      <c r="AF60" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF60" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ60" s="8">
         <v>9</v>
@@ -9236,7 +9254,7 @@
     </row>
     <row r="61" spans="1:39" s="8" customFormat="1">
       <c r="A61" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>36</v>
@@ -9263,31 +9281,31 @@
         <v>239</v>
       </c>
       <c r="J61" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K61" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K61" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="L61" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M61" s="8">
         <v>239</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="O61" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q61" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P61" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q61" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="R61" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="S61" s="8">
         <v>23</v>
@@ -9296,13 +9314,13 @@
         <v>0.16</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="W61" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="X61" s="8" t="s">
         <v>38</v>
@@ -9314,22 +9332,22 @@
         <v>1.7099999999999999E-5</v>
       </c>
       <c r="AA61" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AB61" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AC61" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE61" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE61" s="8" t="s">
+      <c r="AF61" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF61" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ61" s="8">
         <v>9</v>
@@ -9337,13 +9355,13 @@
     </row>
     <row r="62" spans="1:39" s="8" customFormat="1">
       <c r="A62" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D62" s="8">
         <v>935600</v>
@@ -9364,31 +9382,31 @@
         <v>240</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M62" s="8">
         <v>240</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>78</v>
+        <v>635</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="S62" s="8">
         <v>21.7</v>
@@ -9397,13 +9415,13 @@
         <v>0.254</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="W62" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="X62" s="8" t="s">
         <v>38</v>
@@ -9421,16 +9439,16 @@
         <v>38</v>
       </c>
       <c r="AC62" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE62" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE62" s="8" t="s">
+      <c r="AF62" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF62" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ62" s="8">
         <v>9</v>
@@ -9438,13 +9456,13 @@
     </row>
     <row r="63" spans="1:39" s="8" customFormat="1">
       <c r="A63" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D63" s="8">
         <v>945154</v>
@@ -9465,10 +9483,10 @@
         <v>255</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>44</v>
@@ -9477,19 +9495,19 @@
         <v>255</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>135</v>
+        <v>638</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P63" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S63" s="8">
         <v>19.3</v>
@@ -9498,13 +9516,13 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="U63" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="W63" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="X63" s="8" t="s">
         <v>38</v>
@@ -9522,16 +9540,16 @@
         <v>38</v>
       </c>
       <c r="AC63" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD63" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE63" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE63" s="8" t="s">
+      <c r="AF63" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF63" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ63" s="8">
         <v>9</v>
@@ -9540,18 +9558,18 @@
         <v>2</v>
       </c>
       <c r="AL63" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM63" s="8" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:39" s="8" customFormat="1">
       <c r="A64" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>35</v>
@@ -9575,10 +9593,10 @@
         <v>260</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>36</v>
@@ -9587,19 +9605,19 @@
         <v>260</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>62</v>
+        <v>636</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P64" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="S64" s="8">
         <v>25</v>
@@ -9608,13 +9626,13 @@
         <v>0.90600000000000003</v>
       </c>
       <c r="U64" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="W64" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="X64" s="8" t="s">
         <v>38</v>
@@ -9632,16 +9650,16 @@
         <v>38</v>
       </c>
       <c r="AC64" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD64" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE64" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE64" s="8" t="s">
+      <c r="AF64" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF64" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ64" s="8">
         <v>9</v>
@@ -9650,18 +9668,18 @@
         <v>2</v>
       </c>
       <c r="AL64" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM64" s="8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="65" spans="1:39" s="8" customFormat="1">
       <c r="A65" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>35</v>
@@ -9685,31 +9703,31 @@
         <v>288</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M65" s="8">
         <v>288</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S65" s="8">
         <v>24.4</v>
@@ -9718,13 +9736,13 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="U65" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="W65" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="X65" s="8" t="s">
         <v>38</v>
@@ -9742,16 +9760,16 @@
         <v>38</v>
       </c>
       <c r="AC65" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD65" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE65" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AF65" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ65" s="8">
         <v>9</v>
@@ -9759,10 +9777,10 @@
     </row>
     <row r="66" spans="1:39" s="8" customFormat="1">
       <c r="A66" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>36</v>
@@ -9786,31 +9804,31 @@
         <v>320</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M66" s="8">
         <v>320</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="S66" s="8">
         <v>20.2</v>
@@ -9819,13 +9837,13 @@
         <v>0.191</v>
       </c>
       <c r="U66" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V66" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="W66" s="8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="X66" s="8" t="s">
         <v>38</v>
@@ -9843,16 +9861,16 @@
         <v>38</v>
       </c>
       <c r="AC66" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD66" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE66" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF66" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ66" s="8">
         <v>9</v>
@@ -9860,7 +9878,7 @@
     </row>
     <row r="67" spans="1:39" s="8" customFormat="1">
       <c r="A67" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>36</v>
@@ -9887,31 +9905,31 @@
         <v>321</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M67" s="8">
         <v>321</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>195</v>
+        <v>635</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R67" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="S67" s="8">
         <v>32</v>
@@ -9920,13 +9938,13 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="U67" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V67" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="W67" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="X67" s="8" t="s">
         <v>38</v>
@@ -9938,22 +9956,22 @@
         <v>8.918E-6</v>
       </c>
       <c r="AA67" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AB67" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AC67" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD67" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE67" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF67" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ67" s="8">
         <v>9</v>
@@ -9962,21 +9980,21 @@
         <v>2</v>
       </c>
       <c r="AL67" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM67" s="8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:39" s="8" customFormat="1">
       <c r="A68" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D68" s="8">
         <v>658339</v>
@@ -9997,31 +10015,31 @@
         <v>324</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M68" s="8">
         <v>324</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S68" s="8">
         <v>20.5</v>
@@ -10030,13 +10048,13 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="U68" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V68" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="W68" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="X68" s="8" t="s">
         <v>38</v>
@@ -10054,16 +10072,16 @@
         <v>38</v>
       </c>
       <c r="AC68" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD68" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE68" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE68" s="8" t="s">
+      <c r="AF68" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF68" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ68" s="8">
         <v>9</v>
@@ -10071,7 +10089,7 @@
     </row>
     <row r="69" spans="1:39" s="8" customFormat="1">
       <c r="A69" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>36</v>
@@ -10101,28 +10119,28 @@
         <v>42</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M69" s="8">
         <v>355</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R69" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="S69" s="8">
         <v>22.4</v>
@@ -10131,13 +10149,13 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="U69" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V69" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="W69" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="X69" s="8" t="s">
         <v>38</v>
@@ -10149,22 +10167,22 @@
         <v>2.287E-4</v>
       </c>
       <c r="AA69" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB69" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AC69" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD69" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE69" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE69" s="8" t="s">
+      <c r="AF69" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF69" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ69" s="8">
         <v>9</v>
@@ -10172,13 +10190,13 @@
     </row>
     <row r="70" spans="1:39" s="8" customFormat="1">
       <c r="A70" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D70" s="8">
         <v>1306812</v>
@@ -10199,31 +10217,31 @@
         <v>368</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M70" s="8">
         <v>368</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P70" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="S70" s="8">
         <v>21</v>
@@ -10232,13 +10250,13 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="U70" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V70" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="W70" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="X70" s="8" t="s">
         <v>38</v>
@@ -10256,16 +10274,16 @@
         <v>38</v>
       </c>
       <c r="AC70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD70" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE70" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF70" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ70" s="8">
         <v>9</v>
@@ -10273,7 +10291,7 @@
     </row>
     <row r="71" spans="1:39" s="8" customFormat="1">
       <c r="A71" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>35</v>
@@ -10300,31 +10318,31 @@
         <v>379</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M71" s="8">
         <v>379</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="S71" s="8">
         <v>24</v>
@@ -10333,13 +10351,13 @@
         <v>0.36299999999999999</v>
       </c>
       <c r="U71" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V71" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W71" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="X71" s="8" t="s">
         <v>38</v>
@@ -10357,16 +10375,16 @@
         <v>38</v>
       </c>
       <c r="AC71" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD71" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE71" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE71" s="8" t="s">
+      <c r="AF71" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF71" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ71" s="8">
         <v>9</v>
@@ -10374,13 +10392,13 @@
     </row>
     <row r="72" spans="1:39" s="8" customFormat="1">
       <c r="A72" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D72" s="8">
         <v>567322</v>
@@ -10401,31 +10419,31 @@
         <v>389</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M72" s="8">
         <v>389</v>
       </c>
       <c r="N72" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P72" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q72" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="O72" s="8" t="s">
+      <c r="R72" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="P72" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q72" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="R72" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="S72" s="8">
         <v>24.7</v>
@@ -10434,13 +10452,13 @@
         <v>0.156</v>
       </c>
       <c r="U72" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="W72" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X72" s="8" t="s">
         <v>38</v>
@@ -10458,16 +10476,16 @@
         <v>38</v>
       </c>
       <c r="AC72" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD72" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE72" s="8" t="s">
+      <c r="AF72" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF72" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ72" s="8">
         <v>9</v>
@@ -10475,13 +10493,13 @@
     </row>
     <row r="73" spans="1:39" s="8" customFormat="1">
       <c r="A73" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D73" s="8">
         <v>968763</v>
@@ -10502,10 +10520,10 @@
         <v>399</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L73" s="8" t="s">
         <v>35</v>
@@ -10514,19 +10532,19 @@
         <v>399</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P73" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R73" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S73" s="8">
         <v>25.5</v>
@@ -10535,13 +10553,13 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="U73" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V73" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="W73" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X73" s="8" t="s">
         <v>38</v>
@@ -10559,16 +10577,16 @@
         <v>38</v>
       </c>
       <c r="AC73" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD73" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE73" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE73" s="8" t="s">
+      <c r="AF73" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF73" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ73" s="8">
         <v>9</v>
@@ -10576,13 +10594,13 @@
     </row>
     <row r="74" spans="1:39" s="8" customFormat="1">
       <c r="A74" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D74" s="8">
         <v>423928</v>
@@ -10603,31 +10621,31 @@
         <v>430</v>
       </c>
       <c r="J74" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L74" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="M74" s="8">
         <v>430</v>
       </c>
       <c r="N74" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P74" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="O74" s="8" t="s">
+      <c r="Q74" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="P74" s="8" t="s">
+      <c r="R74" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="Q74" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="R74" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="S74" s="8">
         <v>18.829999999999998</v>
@@ -10636,13 +10654,13 @@
         <v>0.187</v>
       </c>
       <c r="U74" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V74" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W74" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X74" s="8" t="s">
         <v>38</v>
@@ -10660,16 +10678,16 @@
         <v>38</v>
       </c>
       <c r="AC74" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD74" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE74" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF74" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ74" s="8">
         <v>9</v>
@@ -10678,21 +10696,21 @@
         <v>2</v>
       </c>
       <c r="AL74" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM74" s="8" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:39" s="8" customFormat="1">
       <c r="A75" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D75" s="8">
         <v>1311396</v>
@@ -10713,31 +10731,31 @@
         <v>437</v>
       </c>
       <c r="J75" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="L75" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="M75" s="8">
         <v>437</v>
       </c>
       <c r="N75" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q75" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O75" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="P75" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q75" s="8" t="s">
+      <c r="R75" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="R75" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="S75" s="8">
         <v>20.2</v>
@@ -10746,40 +10764,40 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="U75" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V75" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="W75" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="W75" s="8" t="s">
+      <c r="X75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC75" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD75" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE75" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="X75" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y75" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z75" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA75" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB75" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC75" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD75" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE75" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="AF75" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ75" s="8">
         <v>9</v>
@@ -10787,13 +10805,13 @@
     </row>
     <row r="76" spans="1:39" s="8" customFormat="1">
       <c r="A76" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D76" s="8">
         <v>1015458</v>
@@ -10814,10 +10832,10 @@
         <v>449</v>
       </c>
       <c r="J76" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K76" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="L76" s="8" t="s">
         <v>36</v>
@@ -10826,19 +10844,19 @@
         <v>449</v>
       </c>
       <c r="N76" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O76" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O76" s="8" t="s">
+      <c r="P76" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P76" s="8" t="s">
+      <c r="Q76" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q76" s="8" t="s">
+      <c r="R76" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="R76" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="S76" s="8">
         <v>26.1</v>
@@ -10847,40 +10865,40 @@
         <v>0.223</v>
       </c>
       <c r="U76" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="V76" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="V76" s="8" t="s">
+      <c r="W76" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="W76" s="8" t="s">
+      <c r="X76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC76" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD76" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="X76" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y76" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z76" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA76" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB76" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC76" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD76" s="8" t="s">
+      <c r="AE76" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AE76" s="8" t="s">
+      <c r="AF76" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AF76" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="AJ76" s="8">
         <v>9</v>
@@ -10888,10 +10906,10 @@
     </row>
     <row r="77" spans="1:39" s="7" customFormat="1">
       <c r="A77" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>36</v>
@@ -10915,31 +10933,31 @@
         <v>17</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M77" s="7">
         <v>17</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="S77" s="7">
         <v>26.7</v>
@@ -10948,13 +10966,13 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="U77" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="V77" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="W77" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="X77" s="7" t="s">
         <v>38</v>
@@ -10972,16 +10990,16 @@
         <v>38</v>
       </c>
       <c r="AC77" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD77" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AD77" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="AE77" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AF77" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ77" s="7">
         <v>10</v>
@@ -10990,15 +11008,15 @@
         <v>2</v>
       </c>
       <c r="AL77" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM77" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" spans="1:39" s="7" customFormat="1">
       <c r="A78" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>36</v>
@@ -11025,31 +11043,31 @@
         <v>24</v>
       </c>
       <c r="J78" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K78" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="L78" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M78" s="7">
         <v>24</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="O78" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q78" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P78" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="R78" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="S78" s="7">
         <v>25.8</v>
@@ -11058,13 +11076,13 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="U78" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V78" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="W78" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="X78" s="7" t="s">
         <v>38</v>
@@ -11082,16 +11100,16 @@
         <v>38</v>
       </c>
       <c r="AC78" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD78" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AD78" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="AE78" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AF78" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ78" s="7">
         <v>10</v>
@@ -11099,13 +11117,13 @@
     </row>
     <row r="79" spans="1:39" s="7" customFormat="1">
       <c r="A79" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D79" s="7">
         <v>373747</v>
@@ -11126,10 +11144,10 @@
         <v>125</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>35</v>
@@ -11138,19 +11156,19 @@
         <v>125</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>45</v>
+        <v>644</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R79" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="S79" s="7">
         <v>26.5</v>
@@ -11159,13 +11177,13 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="U79" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V79" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="W79" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="X79" s="7" t="s">
         <v>38</v>
@@ -11183,16 +11201,16 @@
         <v>38</v>
       </c>
       <c r="AC79" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD79" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AD79" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="AE79" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AF79" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ79" s="7">
         <v>10</v>
@@ -11200,7 +11218,7 @@
     </row>
     <row r="80" spans="1:39" s="7" customFormat="1">
       <c r="A80" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>36</v>
@@ -11227,31 +11245,31 @@
         <v>266</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M80" s="7">
         <v>266</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>195</v>
+        <v>635</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="S80" s="7">
         <v>24.4</v>
@@ -11260,13 +11278,13 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="U80" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="V80" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="W80" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="X80" s="7" t="s">
         <v>38</v>
@@ -11284,16 +11302,16 @@
         <v>38</v>
       </c>
       <c r="AC80" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD80" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AD80" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="AE80" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AF80" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ80" s="7">
         <v>10</v>
@@ -11301,7 +11319,7 @@
     </row>
     <row r="81" spans="1:36" s="7" customFormat="1">
       <c r="A81" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>36</v>
@@ -11328,31 +11346,31 @@
         <v>381</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M81" s="7">
         <v>381</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>195</v>
+        <v>635</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S81" s="7">
         <v>25</v>
@@ -11361,13 +11379,13 @@
         <v>0.253</v>
       </c>
       <c r="U81" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V81" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W81" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="X81" s="7" t="s">
         <v>38</v>
@@ -11385,16 +11403,16 @@
         <v>38</v>
       </c>
       <c r="AC81" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD81" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AD81" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="AE81" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF81" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AJ81" s="7">
         <v>10</v>
@@ -11441,19 +11459,19 @@
         <v>461</v>
       </c>
       <c r="N82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O82" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O82" s="7" t="s">
+      <c r="P82" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P82" s="7" t="s">
+      <c r="Q82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q82" s="7" t="s">
+      <c r="R82" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="R82" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="S82" s="7">
         <v>25.2</v>
@@ -11465,10 +11483,10 @@
         <v>38</v>
       </c>
       <c r="V82" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W82" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="W82" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="X82" s="7" t="s">
         <v>38</v>
@@ -11480,30 +11498,31 @@
         <v>1.4970000000000001E-4</v>
       </c>
       <c r="AA82" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB82" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC82" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AB82" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC82" s="7" t="s">
+      <c r="AD82" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AD82" s="7" t="s">
+      <c r="AE82" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AE82" s="7" t="s">
+      <c r="AF82" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="AF82" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="AJ82" s="7">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN82">
-    <sortCondition ref="AJ2:AJ82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ100">
+    <sortCondition ref="AJ2:AJ100"/>
+    <sortCondition ref="I2:I100"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/EEF1A2-variants-prioritized.xlsx
+++ b/EEF1A2-variants-prioritized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI2021/variants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A21AF-A6A5-5445-B0C2-1859FEAC44CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{826E3901-A3EC-FB40-B625-64052D3836F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1500" windowWidth="31640" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EEF1A2_dm" sheetId="1" r:id="rId1"/>
@@ -1967,7 +1967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2107,6 +2107,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="41">
@@ -2513,7 +2521,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2526,6 +2534,11 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2883,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AK12" activeCellId="2" sqref="AK10 AK11 AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3132,7 +3145,7 @@
       <c r="AJ2" s="9">
         <v>1</v>
       </c>
-      <c r="AK2" s="9">
+      <c r="AK2" s="12">
         <v>1</v>
       </c>
       <c r="AL2" s="9" t="s">
@@ -3242,7 +3255,7 @@
       <c r="AJ3" s="2">
         <v>2</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="13">
         <v>1</v>
       </c>
       <c r="AL3" s="2" t="s">
@@ -3456,7 +3469,7 @@
       <c r="AJ5" s="3">
         <v>3</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AK5" s="14">
         <v>1</v>
       </c>
       <c r="AL5" s="3" t="s">
@@ -3997,7 +4010,7 @@
       <c r="AJ10" s="5">
         <v>4</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AK10" s="15">
         <v>1</v>
       </c>
       <c r="AL10" s="5" t="s">
@@ -4104,7 +4117,7 @@
       <c r="AJ11" s="5">
         <v>4</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AK11" s="15">
         <v>1</v>
       </c>
       <c r="AL11" s="5" t="s">
@@ -4211,7 +4224,7 @@
       <c r="AJ12" s="4">
         <v>5</v>
       </c>
-      <c r="AK12" s="4">
+      <c r="AK12" s="16">
         <v>1</v>
       </c>
       <c r="AL12" s="4" t="s">
